--- a/schemas/xlsx/base_stx_seq.xlsx
+++ b/schemas/xlsx/base_stx_seq.xlsx
@@ -8,12 +8,10 @@
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="allowed_values" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="bca" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="dwc" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="global" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="minsce" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="mixs" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="tol" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="dwc" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ei" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mixs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="tol" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,7 +466,7 @@
   <cols>
     <col width="20.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="20.140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="43.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="42.42578125" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="255.7109375" bestFit="1" customWidth="1" min="6" max="7"/>
@@ -495,7 +493,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace_prefix</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -572,7 +570,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -615,7 +613,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -642,7 +640,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -690,7 +688,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -717,7 +715,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -765,7 +763,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -792,7 +790,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -835,7 +833,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1382,7 +1380,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1425,7 +1423,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1452,7 +1450,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1495,7 +1493,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1672,7 +1670,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1887,7 +1885,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2107,7 +2105,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2150,7 +2148,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3262,7 +3260,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>bca</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -17457,7 +17455,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -17500,7 +17498,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -17527,7 +17525,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -17570,7 +17568,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -17597,7 +17595,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -17640,7 +17638,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -17667,7 +17665,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -17710,7 +17708,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -17737,7 +17735,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -17780,7 +17778,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -17807,7 +17805,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -17850,7 +17848,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -17877,7 +17875,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -17920,7 +17918,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -17947,7 +17945,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -17990,7 +17988,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -18017,7 +18015,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -18060,7 +18058,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -18087,7 +18085,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -18130,7 +18128,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -18157,7 +18155,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -18200,7 +18198,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -18227,7 +18225,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -18270,7 +18268,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -18297,7 +18295,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -18340,7 +18338,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -18367,7 +18365,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -18410,7 +18408,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -18437,7 +18435,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -18480,7 +18478,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -18507,7 +18505,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -18550,7 +18548,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -18577,7 +18575,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -18620,7 +18618,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -18647,7 +18645,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -18690,7 +18688,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -18717,7 +18715,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -18760,7 +18758,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -18787,7 +18785,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -18830,7 +18828,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -18857,7 +18855,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -18900,7 +18898,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -18927,7 +18925,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -18970,7 +18968,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -18997,7 +18995,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -19040,7 +19038,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -19067,7 +19065,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -19110,7 +19108,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -19137,7 +19135,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -19180,7 +19178,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -19207,7 +19205,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -19250,7 +19248,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -19277,7 +19275,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -19320,7 +19318,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -19422,7 +19420,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -19465,7 +19463,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -19492,7 +19490,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -19562,7 +19560,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -19632,7 +19630,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -19675,7 +19673,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -19702,7 +19700,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -19772,7 +19770,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -19842,7 +19840,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -19907,7 +19905,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -19945,7 +19943,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -19972,7 +19970,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -20037,7 +20035,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -20102,7 +20100,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -20167,7 +20165,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -20237,7 +20235,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -20280,7 +20278,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -20307,7 +20305,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -20350,7 +20348,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -20377,7 +20375,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -20420,7 +20418,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -20447,7 +20445,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -20490,7 +20488,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -20517,7 +20515,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -20560,7 +20558,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -20587,7 +20585,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -20630,7 +20628,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -20657,7 +20655,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -20695,7 +20693,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -20722,7 +20720,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -20765,7 +20763,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -20792,7 +20790,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -20835,7 +20833,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -20862,7 +20860,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -20900,7 +20898,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
@@ -20927,7 +20925,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -20971,7 +20969,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -20998,7 +20996,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -21042,7 +21040,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
@@ -21069,7 +21067,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -21107,7 +21105,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -21134,7 +21132,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -21172,7 +21170,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -21199,7 +21197,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -21242,7 +21240,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -21269,7 +21267,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -21312,7 +21310,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -21339,7 +21337,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -21382,7 +21380,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -21409,7 +21407,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -21452,7 +21450,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -21479,7 +21477,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -21522,7 +21520,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -21549,7 +21547,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -21592,7 +21590,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -21619,7 +21617,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -21662,7 +21660,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -21689,7 +21687,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -21732,7 +21730,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -21759,7 +21757,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -21802,7 +21800,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -21829,7 +21827,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -21872,7 +21870,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -21899,7 +21897,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -21942,7 +21940,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -21969,7 +21967,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -22012,7 +22010,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -22039,7 +22037,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -22082,7 +22080,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
@@ -22109,7 +22107,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -22153,7 +22151,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -22180,7 +22178,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -22250,7 +22248,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -22320,7 +22318,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -22386,7 +22384,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -24466,190 +24464,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="4" max="5"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="97.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="14" bestFit="1" customWidth="1" min="7" max="8"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="16" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="15.5703125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="15" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="8" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="32" bestFit="1" customWidth="1" min="15" max="15"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>component_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>component_label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>namespace</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>term_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>term_label</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>term_description</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>term_example</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>term_required</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>term_regex</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>term_cardinality</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>term_type</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>term_reference</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>termset</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>schema_name</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>schema_label</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bca</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>accession_number</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Accession Number</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A unique alphanumeric reference or identifier assigned to the sample in the study related to NCBI Taxonomy.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>accession123</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24665,7 +24479,7 @@
   <cols>
     <col width="17.140625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="37.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="39.85546875" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="255.7109375" bestFit="1" customWidth="1" min="6" max="7"/>
@@ -24693,7 +24507,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace_prefix</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -39470,13 +39284,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39484,9 +39298,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="20.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="43.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="42.42578125" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="221.140625" bestFit="1" customWidth="1" min="6" max="6"/>
@@ -39514,7 +39328,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace_prefix</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -39591,7 +39405,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -39634,7 +39448,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -39661,7 +39475,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -39709,7 +39523,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -39736,7 +39550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -39784,7 +39598,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -39811,7 +39625,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -39854,7 +39668,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -39881,7 +39695,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -39924,7 +39738,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -39951,7 +39765,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -39994,7 +39808,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -40021,32 +39835,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>tissue</t>
+          <t>organism</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tissue</t>
+          <t>Organism</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>The type of tissue sampled for the study.</t>
+          <t>The full scientific name of the species studied.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leaf</t>
+          <t>Arenicola marina</t>
         </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]+[a-z]+$</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>single</t>
@@ -40057,14 +39876,9 @@
           <t>string</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/NCIT_C19697</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -40081,41 +39895,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>imaging_protocol</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Imaging Protocol</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>imaging_protocol_id</t>
+          <t>strain</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Imaging Protocol ID</t>
+          <t>Strain</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A unique alphanumeric identifier for the imaging protocol.</t>
+          <t>An identifier of the strain of the organism, if applicable.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>img123</t>
+          <t>CCAP1119/17</t>
         </is>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -40132,9 +39946,14 @@
           <t>string</t>
         </is>
       </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>http://www.ebi.ac.uk/efo/EFO_0005135</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -40151,46 +39970,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>imaging_protocol</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Imaging Protocol</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>tissue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Platform</t>
+          <t>Tissue</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The platform used to isolate the cells.</t>
+          <t>The type of tissue sampled for the study.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Illumina NovaSeq</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -40202,9 +40016,14 @@
           <t>string</t>
         </is>
       </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCIT_C19697</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -40221,41 +40040,41 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>imaging_protocol</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Imaging Protocol</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>instrument</t>
+          <t>accession_number</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Instrument</t>
+          <t>Accession Number</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>The instrument used to isolate the cells.</t>
+          <t>A unique alphanumeric reference or identifier assigned to the sample in the study related to NCBI Taxonomy.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Illumina NovaSeq 6000</t>
+          <t>accession123</t>
         </is>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -40274,7 +40093,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -40301,31 +40120,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>dissociation_method</t>
+          <t>imaging_protocol_id</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dissociation Method</t>
+          <t>Imaging Protocol ID</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>The method used for dissociating the cells.</t>
+          <t>A unique alphanumeric identifier for the imaging protocol.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>enzymatic</t>
+          <t>img123</t>
         </is>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -40344,7 +40163,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -40371,31 +40190,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>dissociation_time</t>
+          <t>platform</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dissociation Time</t>
+          <t>Platform</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>The time duration for dissociation in minutes.</t>
+          <t>The platform used to isolate the cells.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Illumina NovaSeq</t>
         </is>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -40414,7 +40233,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -40441,35 +40260,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>dissociation_temperature</t>
+          <t>instrument</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dissociation Temperature</t>
+          <t>Instrument</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>The temperature at which dissociation is performed in degrees celsius.</t>
+          <t>The instrument used to isolate the cells.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>Illumina NovaSeq 6000</t>
         </is>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>^-?\d+(\.\d+)?$</t>
+          <t>^[A-Za-z]*[a-z]+$</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -40479,12 +40298,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -40511,27 +40330,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>dissociation_enzyme</t>
+          <t>dissociation_method</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dissociation Enzyme</t>
+          <t>Dissociation Method</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>The enzyme used for dissociation.</t>
+          <t>The method used for dissociating the cells.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>collagenase</t>
+          <t>enzymatic</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -40554,7 +40373,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -40581,27 +40400,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>dissociation_enzyme_concentration</t>
+          <t>dissociation_time</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dissociation Enzyme Concentration</t>
+          <t>Dissociation Time</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>The concentration of the dissociation enzyme.</t>
+          <t>The time duration for dissociation in minutes.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H16" t="b">
@@ -40619,12 +40438,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -40651,22 +40470,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>material_incubation_temperature</t>
+          <t>dissociation_temperature</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Material Incubation Temperature</t>
+          <t>Dissociation Temperature</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>The temperature at which the material is incubated in degrees C.</t>
+          <t>The temperature at which dissociation is performed in degrees celsius.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -40694,7 +40513,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -40721,27 +40540,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>material_incubation_time</t>
+          <t>dissociation_enzyme</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Material Incubation Time</t>
+          <t>Dissociation Enzyme</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>The time duration for material incubation in hours.</t>
+          <t>The enzyme used for dissociation.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>collagenase</t>
         </is>
       </c>
       <c r="H18" t="b">
@@ -40759,12 +40578,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -40791,27 +40610,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>lysis_buffer_solution</t>
+          <t>dissociation_enzyme_concentration</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lysis Buffer Solution</t>
+          <t>Dissociation Enzyme Concentration</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>The solution used for lysis buffer.</t>
+          <t>The concentration of the dissociation enzyme.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>RIPA buffe</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H19" t="b">
@@ -40829,12 +40648,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -40861,35 +40680,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>target_probes</t>
+          <t>material_incubation_temperature</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Target Probes</t>
+          <t>Material Incubation Temperature</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>The type of probes used to detect and quantify specific RNA molecules in their native spatial context within a tissue or cell.</t>
+          <t>The temperature at which the material is incubated in degrees C.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Oligo-dT</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
+          <t>^-?\d+(\.\d+)?$</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -40899,12 +40718,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -40931,27 +40750,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>section_thickness_µm</t>
+          <t>material_incubation_time</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Section Thickness Μm</t>
+          <t>Material Incubation Time</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>The thickness of the tissue section in micrometres.</t>
+          <t>The time duration for material incubation in hours.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H21" t="b">
@@ -40959,7 +40778,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>^\d+(\.\d+)?$</t>
+          <t>^[A-Za-z]*[a-z]+$</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -40974,7 +40793,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -41001,27 +40820,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>section_thickness_method</t>
+          <t>lysis_buffer_solution</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Section Thickness Method</t>
+          <t>Lysis Buffer Solution</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>The method used to measure tissue section thickness.</t>
+          <t>The solution used for lysis buffer.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Microtome</t>
+          <t>RIPA buffe</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -41044,7 +40863,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -41071,31 +40890,31 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>section_thickness_temperature</t>
+          <t>target_probes</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Section Thickness Temperature</t>
+          <t>Target Probes</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>The temperature at which the section was made.</t>
+          <t>The type of probes used to detect and quantify specific RNA molecules in their native spatial context within a tissue or cell.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Room temperature</t>
+          <t>Oligo-dT</t>
         </is>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -41109,12 +40928,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -41141,27 +40960,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>is_pathological</t>
+          <t>section_thickness_µm</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Is Pathological</t>
+          <t>Section Thickness Μm</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A quality inhering in a bearer by virtue of the bearer's being abnormal and having a destructive effect on living tissue.</t>
+          <t>The thickness of the tissue section in micrometres.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H24" t="b">
@@ -41169,7 +40988,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
+          <t>^\d+(\.\d+)?$</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -41179,12 +40998,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -41211,27 +41030,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>digestion_workflow</t>
+          <t>section_thickness_method</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Digestion Workflow</t>
+          <t>Section Thickness Method</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A link to a workflow describing the digestion protocol in Protocols.io</t>
+          <t>The method used to measure tissue section thickness.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Spatial transcriptomics dissociation</t>
+          <t>Microtome</t>
         </is>
       </c>
       <c r="H25" t="b">
@@ -41254,7 +41073,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -41281,27 +41100,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>digestion_time_in_minutes</t>
+          <t>section_thickness_temperature</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Digestion Time In Minutes</t>
+          <t>Section Thickness Temperature</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>The duration of digestion in minutes.</t>
+          <t>The temperature at which the section was made.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Room temperature</t>
         </is>
       </c>
       <c r="H26" t="b">
@@ -41309,7 +41128,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>^\d+$</t>
+          <t>^[A-Za-z]*[a-z]+$</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -41324,7 +41143,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -41351,27 +41170,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>digestion_temperature</t>
+          <t>is_pathological</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Digestion Temperature</t>
+          <t>Is Pathological</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>The temperature at which digestion was carried out.</t>
+          <t>A quality inhering in a bearer by virtue of the bearer's being abnormal and having a destructive effect on living tissue.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H27" t="b">
@@ -41379,7 +41198,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>^-?\d+(\.\d+)?$</t>
+          <t>^[A-Za-z]*[a-z]+$</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -41389,12 +41208,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -41421,27 +41240,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>photobleaching_duration_in_hours</t>
+          <t>digestion_workflow</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Photobleaching Duration In Hours</t>
+          <t>Digestion Workflow</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>The duration of photobleaching in hours</t>
+          <t>A link to a workflow describing the digestion protocol in Protocols.io</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Spatial transcriptomics dissociation</t>
         </is>
       </c>
       <c r="H28" t="b">
@@ -41459,12 +41278,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -41491,35 +41310,35 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>instrument_user_guide</t>
+          <t>digestion_time_in_minutes</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Instrument User Guide</t>
+          <t>Digestion Time In Minutes</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>The user guide for the instrument used.</t>
+          <t>The duration of digestion in minutes.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>User Guide v1.2</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
+          <t>^\d+$</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -41529,12 +41348,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -41561,35 +41380,35 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>instrument_user_guide_revision</t>
+          <t>digestion_temperature</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Instrument User Guide Revision</t>
+          <t>Digestion Temperature</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>The revision of the instrument user guide.</t>
+          <t>The temperature at which digestion was carried out.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
+          <t>^-?\d+(\.\d+)?$</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -41599,12 +41418,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -41631,31 +41450,31 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>sample_preparation_guide</t>
+          <t>photobleaching_duration_in_hours</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sample Preparation Guide</t>
+          <t>Photobleaching Duration In Hours</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>The guide used for sample preparation.</t>
+          <t>The duration of photobleaching in hours</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>preparation_guide_v1.0.pdf</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -41669,12 +41488,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -41701,27 +41520,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>sample_preparation_guide_revision</t>
+          <t>instrument_user_guide</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sample Preparation Guide Revision</t>
+          <t>Instrument User Guide</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>The revision of the sample preparation guide.</t>
+          <t>The user guide for the instrument used.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>User Guide v1.2</t>
         </is>
       </c>
       <c r="H32" t="b">
@@ -41744,7 +41563,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -41771,27 +41590,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>deviations_from_official_protocol</t>
+          <t>instrument_user_guide_revision</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Deviations From Official Protocol</t>
+          <t>Instrument User Guide Revision</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Any deviations from the official protocol. Separate individual deviations with '|'.</t>
+          <t>The revision of the instrument user guide.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Temperature exceeded 25°C during storage | Sample handling delayed by 2 hours</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="H33" t="b">
@@ -41814,7 +41633,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -41831,37 +41650,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>library_preparation</t>
+          <t>imaging_protocol</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Library Preparation</t>
+          <t>Imaging Protocol</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>library_prep_id</t>
+          <t>sample_preparation_guide</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Library Preparation ID</t>
+          <t>Sample Preparation Guide</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
+          <t>The guide used for sample preparation.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>libPrep123</t>
+          <t>preparation_guide_v1.0.pdf</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -41884,7 +41703,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -41901,37 +41720,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>library_preparation</t>
+          <t>imaging_protocol</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Library Preparation</t>
+          <t>Imaging Protocol</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>cell_suspension_id</t>
+          <t>sample_preparation_guide_revision</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cell Suspension ID</t>
+          <t>Sample Preparation Guide Revision</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>A unique alphanumeric code for the cell suspension for the library preparation.</t>
+          <t>The revision of the sample preparation guide.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cellSusp123</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -41954,7 +41773,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -41971,37 +41790,37 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>library_preparation</t>
+          <t>imaging_protocol</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Library Preparation</t>
+          <t>Imaging Protocol</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>library_prep_kit_version</t>
+          <t>deviations_from_official_protocol</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Library Preparation Kit Version</t>
+          <t>Deviations From Official Protocol</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>The version number of the library preparation kit used for sequencing.</t>
+          <t>Any deviations from the official protocol. Separate individual deviations with '|'.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Temperature exceeded 25°C during storage | Sample handling delayed by 2 hours</t>
         </is>
       </c>
       <c r="H36" t="b">
@@ -42019,12 +41838,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -42051,31 +41870,31 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>average_size_distribution</t>
+          <t>library_prep_id</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Average Size Distribution</t>
+          <t>Library Preparation ID</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>The average length of RNA fragments in base pairs (BP) after library preparation, indicating the quality and suitability of the RNA for sequencing.</t>
+          <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>libPrep123</t>
         </is>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -42089,12 +41908,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -42121,32 +41940,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>primeness</t>
+          <t>cell_suspension_id</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Primeness</t>
+          <t>Cell Suspension ID</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>The end from which the molecule was sequenced.</t>
+          <t>A unique alphanumeric code for the cell suspension for the library preparation.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5'</t>
+          <t>cellSusp123</t>
         </is>
       </c>
       <c r="H38" t="b">
         <v>1</v>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>single</t>
@@ -42159,7 +41983,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -42176,37 +42000,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sequencing</t>
+          <t>library_preparation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Library Preparation</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>sequencing_reference</t>
+          <t>library_prep_kit_version</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sequencing Reference</t>
+          <t>Library Preparation Kit Version</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>A unique alphanumeric reference or identifier for the sequencing protocol.</t>
+          <t>The version number of the library preparation kit used for sequencing.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>seq123</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H39" t="b">
@@ -42224,12 +42048,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -42246,41 +42070,41 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sequencing</t>
+          <t>library_preparation</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Library Preparation</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>technical_replicate_group_or_library_reference</t>
+          <t>amplification_method</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Technical Replicate Group Or Library Reference</t>
+          <t>Amplification Method</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>A common term for all runs or files belonging to the same cell or library. It is recommended to use a stable sample accession from a biosample archive like BioSample. Alternatively, the library ID can be referenced from which the files were generated.</t>
+          <t>The method used to amplify the Complementary DNA (cDNA).</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>lib1</t>
+          <t>PCR</t>
         </is>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -42299,7 +42123,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -42316,41 +42140,41 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sequencing</t>
+          <t>library_preparation</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Library Preparation</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>sequencing_platform_name</t>
+          <t>cDNA_amplification_cycles</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sequencing Platform Name</t>
+          <t>cDNA Amplification Cycles</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>The name of the sequencing platform used for the experiment.</t>
+          <t>The number of cycles used during the Complementary DNA (cDNA) amplification process.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Paired-end</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -42364,12 +42188,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -42386,37 +42210,37 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sequencing</t>
+          <t>library_preparation</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Library Preparation</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>sequencing_instrument_model</t>
+          <t>average_size_distribution</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sequencing Instrument Model</t>
+          <t>Average Size Distribution</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>This refers to the specific machine or platform used to carry out the sequencing process. Different models can have varying throughput, read lengths, error rates, and application suitability.</t>
+          <t>The average length of RNA fragments in base pairs (BP) after library preparation, indicating the quality and suitability of the RNA for sequencing.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Illumina NovaSeq 6000</t>
+          <t>350</t>
         </is>
       </c>
       <c r="H42" t="b">
@@ -42434,12 +42258,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -42456,41 +42280,46 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sequencing</t>
+          <t>library_preparation</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Library Preparation</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>library_layout</t>
+          <t>library_construction_method</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Library Layout</t>
+          <t>Library Construction Method</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>The type of library layout used for sequencing.</t>
+          <t>The library construction method (including version) that was used.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>single</t>
+          <t>Smart-Seq2</t>
         </is>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -42502,14 +42331,9 @@
           <t>string</t>
         </is>
       </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/NCIT_C150423</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -42526,37 +42350,37 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sequencing</t>
+          <t>library_preparation</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Library Preparation</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>reads_per_sample</t>
+          <t>input_molecule</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Reads Per Sample</t>
+          <t>Input Molecule</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>The number of sequencing reads generated per sample.</t>
+          <t>The specific fraction of biological macromolecule from which the sequencing library is derived.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="H44" t="b">
@@ -42574,12 +42398,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -42596,37 +42420,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sequencing</t>
+          <t>library_preparation</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Library Preparation</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>UMI_barcode_read</t>
+          <t>primer</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Umi Barcode Read</t>
+          <t>Primer</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>The type of read that contains the UMI barcode:</t>
+          <t>The type of primer used for reverse transcription. This allows users to identify content of the cDNA library input for mRNA.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>index2</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="H45" t="b">
@@ -42644,7 +42468,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -42661,46 +42485,41 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sequencing</t>
+          <t>library_preparation</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Library Preparation</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>UMI_barcode_offset</t>
+          <t>primeness</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Umi Barcode Offset</t>
+          <t>Primeness</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>The offset in sequence of the UUnique Molecular Identifier (UMI)MI identifying barcode.</t>
+          <t>The end from which the molecule was sequenced.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5'</t>
         </is>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>^\d+$</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -42709,12 +42528,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -42731,47 +42550,42 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sequencing</t>
+          <t>library_preparation</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Library Preparation</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>UMI_barcode_size</t>
+          <t>end_bias</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Umi Barcode Size</t>
+          <t>End Bias</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>The size of the Unique Molecular Identifier (UMI) identifying barcode.</t>
+          <t>The end bias of the library.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>single</t>
@@ -42784,7 +42598,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -42801,37 +42615,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sequencing</t>
+          <t>library_preparation</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Library Preparation</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>cell_barcode_read</t>
+          <t>library_strand</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cell Barcode Read</t>
+          <t>Library Strand</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>The type of read that contains the UMI barcode.</t>
+          <t>The Complementary DNA (cDNA) strand of the library from which the reads derived from - sense (first), antisense (second), both or none.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>index1</t>
+          <t>Antisense</t>
         </is>
       </c>
       <c r="H48" t="b">
@@ -42849,7 +42663,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -42866,962 +42680,957 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>library_preparation</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Library Preparation</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>spike_in</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Spike In</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>External RNA added to the sample as a control to assess technical variability and normalization in RNA-sequencing. State whether spike-in was used.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>library_preparation</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Library Preparation</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>spike_in_dilution_or_concentration</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Spike In Dilution Or Concentration</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>The final concentration or dilution (for commercial sets) of the spike in mix.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1:1000</t>
+        </is>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>sequencing</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Sequencing</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>sequencing_reference</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Sequencing Reference</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>A unique alphanumeric reference or identifier for the sequencing protocol.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>seq123</t>
+        </is>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>technical_replicate_group_or_library_reference</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Technical Replicate Group Or Library Reference</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>A common term for all runs or files belonging to the same cell or library. It is recommended to use a stable sample accession from a biosample archive like BioSample. Alternatively, the library ID can be referenced from which the files were generated.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>lib1</t>
+        </is>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>sequencing_platform_name</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Sequencing Platform Name</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>The name of the sequencing platform used for the experiment.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Paired-end</t>
+        </is>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>sequencing_instrument_model</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Sequencing Instrument Model</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>This refers to the specific machine or platform used to carry out the sequencing process. Different models can have varying throughput, read lengths, error rates, and application suitability.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Illumina NovaSeq 6000</t>
+        </is>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>library_layout</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Library Layout</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>The type of library layout used for sequencing.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCIT_C150423</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>reads_per_sample</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Reads Per Sample</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>The number of sequencing reads generated per sample.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>UMI_barcode_read</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Umi Barcode Read</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>The type of read that contains the UMI barcode:</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>index2</t>
+        </is>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>UMI_barcode_offset</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Umi Barcode Offset</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>The offset in sequence of the UUnique Molecular Identifier (UMI)MI identifying barcode.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>^\d+$</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>UMI_barcode_size</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Umi Barcode Size</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>The size of the Unique Molecular Identifier (UMI) identifying barcode.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>cell_barcode_read</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cell Barcode Read</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>The type of read that contains the UMI barcode.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>index1</t>
+        </is>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>cell_barcode_offset</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Cell Barcode Offset</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>The offset in sequence of the cell identifying barcode.
 E.g. "0".</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>^\d+$</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>sequencing</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Sequencing</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>cell_barcode_size</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>Cell Barcode Size</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>The offset in sequence of the cell identifying barcode.
 E.g. "0".</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>^\d+$</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>sequencing</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Sequencing</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>cDNA_read</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Cdna Read</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>The type of read that contains the Complementary DNA (cDNA) read.</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>read1</t>
-        </is>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>sequencing</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Sequencing</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>cDNA_read_offset</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Cdna Read Offset</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>The type of read that contains the Complementary DNA (cDNA) read.</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>sequencing</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Sequencing</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>cDNA_read_size</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Cdna Read Size</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>The size of the cDNA read. E.g. "100".</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>sequencing</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Sequencing</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>sample_barcode_read</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Sample Barcode Read</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>The type of read that contains the sample barcode.</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>read2</t>
-        </is>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>sequencing</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Sequencing</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>sample_barcode_offset</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Sample Barcode Offset</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>The offset in sequence of the sample identifying barcode.</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>^\d+$</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>sequencing</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Sequencing</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>sample_barcode_size</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Sample Barcode Size</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>The size of the read that contains the sample barcode.</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>^\d+$</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>file</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>imaging_protocol_id</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Imaging Protocol ID</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>A unique alphanumeric identifier for the imaging protocol.</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>img123</t>
-        </is>
-      </c>
-      <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>file</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>library_preparation_id</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Library Preparation ID</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>libPrep123</t>
-        </is>
-      </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>file</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>sequencing_id</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Sequencing ID</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>A unique alphanumeric reference or identifier for the sequencing protocol.</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>seq123</t>
-        </is>
-      </c>
-      <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>file</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>read_1_file</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Read 1 File</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>The name of the file that contains read 1.</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>file1_r1.fastq.gz</t>
-        </is>
-      </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>file</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>read_2_file</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Read 2 File</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>The name of the file that contains read 2.</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>file2_r2.fastq.gz</t>
-        </is>
-      </c>
-      <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>file</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>index_1_file</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Index 1 File</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>The name of the file that contains index 1.</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>file1_i1.fastq.gz</t>
-        </is>
-      </c>
-      <c r="H62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -43838,46 +43647,41 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>sequencing</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>File</t>
+          <t>Sequencing</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>index_2_file</t>
+          <t>cDNA_read</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Index 2 File</t>
+          <t>Cdna Read</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>The name of the file that contains index 2.</t>
+          <t>The type of read that contains the Complementary DNA (cDNA) read.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>file2_i2.fastq.gz</t>
+          <t>read1</t>
         </is>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -43891,7 +43695,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -43908,46 +43712,41 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>sequencing</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>File</t>
+          <t>Sequencing</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>read_checksum</t>
+          <t>cDNA_read_offset</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Read Checksum</t>
+          <t>Cdna Read Offset</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Result of a hash function calculated on the content of both the read 1 file and the read 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+          <t>The type of read that contains the Complementary DNA (cDNA) read.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e,5a105e8b9d40e1329780d62ea2265d8a77a1a45e</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -43956,12 +43755,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -43978,41 +43777,41 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>sequencing</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>File</t>
+          <t>Sequencing</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>index_checksum</t>
+          <t>cDNA_read_size</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Index Checksum</t>
+          <t>Cdna Read Size</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Result of a hash function calculated on the content of both the index 1 file and the index 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+          <t>The size of the cDNA read. E.g. "100".</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>d3486ae9136e7856bc42212385ea797094475802,b7e23ec29af22b0b4e41da31e868d57226121c84</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -44031,7 +43830,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -44048,69 +43847,1180 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>sample_barcode_read</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Sample Barcode Read</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>The type of read that contains the sample barcode.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>read2</t>
+        </is>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>sample_barcode_offset</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Sample Barcode Offset</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>The offset in sequence of the sample identifying barcode.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>^\d+$</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>sequencing</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sequencing</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>sample_barcode_size</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Sample Barcode Size</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>The size of the read that contains the sample barcode.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>^\d+$</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>file</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>imaging_protocol_id</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Imaging Protocol ID</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>A unique alphanumeric identifier for the imaging protocol.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>img123</t>
+        </is>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>library_preparation_id</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Library Preparation ID</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>libPrep123</t>
+        </is>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>sequencing_id</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Sequencing ID</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>A unique alphanumeric reference or identifier for the sequencing protocol.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>seq123</t>
+        </is>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>read_1_file</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Read 1 File</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>The name of the file that contains read 1.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>file1_r1.fastq.gz</t>
+        </is>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>read_2_file</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Read 2 File</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>The name of the file that contains read 2.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>file2_r2.fastq.gz</t>
+        </is>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>index_1_file</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Index 1 File</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>The name of the file that contains index 1.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>file1_i1.fastq.gz</t>
+        </is>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>index_2_file</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Index 2 File</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>The name of the file that contains index 2.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>file2_i2.fastq.gz</t>
+        </is>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>read_checksum</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Read Checksum</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Result of a hash function calculated on the content of both the read 1 file and the read 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>d41d8cd98f00b204e9800998ecf8427e,5a105e8b9d40e1329780d62ea2265d8a77a1a45e</t>
+        </is>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>index_checksum</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Index Checksum</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Result of a hash function calculated on the content of both the index 1 file and the index 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>d3486ae9136e7856bc42212385ea797094475802,b7e23ec29af22b0b4e41da31e868d57226121c84</t>
+        </is>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>white_list_barcode_file</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>White List Barcode File</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>A file containing the known cell barcodes in the
 dataset.</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>barcodes.tsv</t>
         </is>
       </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>analysis_derived_data</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Analysis Derived Data</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>file_derived_from</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>File Derived From</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>The name of the file that was used to generate the analysis derived data.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>file1_sequencing.json</t>
+        </is>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>analysis_derived_data</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Analysis Derived Data</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>inferred_cell_type</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Inferred Cell Type</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Post analysis cell type or identity declaration based on expression profile or known gene function identified by the performer.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>type II bipolar neuron</t>
+        </is>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>analysis_derived_data</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Analysis Derived Data</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>post_analysis_cell_well_quality</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Post Analysis Cell Well Quality</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Performer defined measure of whether the read output
+from the cell was included in the sequencing analysis. For example, cells might be excluded if a threshold percentage of reads did not map to the genome or if pre-sequencing quality measures were not passed.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>analysis_derived_data</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Analysis Derived Data</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>other_derived_cell_attributes</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Other Derived Cell Attributes</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Any other cell level measurement or annotation as result of the analysis.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>stx_seq</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
         <is>
           <t>Spatial Transcriptomics Sequencing</t>
         </is>
@@ -44121,1157 +45031,15 @@
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1"/>
     <hyperlink ref="L4" r:id="rId2"/>
-    <hyperlink ref="L8" r:id="rId3"/>
-    <hyperlink ref="L43" r:id="rId4"/>
+    <hyperlink ref="L9" r:id="rId3"/>
+    <hyperlink ref="L10" r:id="rId4"/>
+    <hyperlink ref="L55" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="20.140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="32.5703125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="31.140625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="185.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="14" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="16" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="15.5703125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="36.42578125" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="8" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="32" bestFit="1" customWidth="1" min="15" max="15"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>component_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>component_label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>namespace</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>term_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>term_label</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>term_description</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>term_example</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>term_required</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>term_regex</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>term_cardinality</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>term_type</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>term_reference</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>termset</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>schema_name</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>schema_label</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>organism</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Organism</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>The full scientific name of the species studied.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Arenicola marina</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]+[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>strain</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Strain</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>An identifier of the strain of the organism, if applicable.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CCAP1119/17</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>http://www.ebi.ac.uk/efo/EFO_0005135</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>library_preparation</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Library Preparation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>amplification_method</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Amplification Method</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>The method used to amplify the Complementary DNA (cDNA).</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>PCR</t>
-        </is>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>library_preparation</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Library Preparation</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>cDNA_amplification_cycles</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>cDNA Amplification Cycles</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>The number of cycles used during the Complementary DNA (cDNA) amplification process.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>library_preparation</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Library Preparation</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>library_construction_method</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Library Construction Method</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>The library construction method (including version) that was used.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Smart-Seq2</t>
-        </is>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>library_preparation</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Library Preparation</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>input_molecule</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Input Molecule</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>The specific fraction of biological macromolecule from which the sequencing library is derived.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>RNA</t>
-        </is>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>library_preparation</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Library Preparation</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>primer</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Primer</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>The type of primer used for reverse transcription. This allows users to identify content of the cDNA library input for mRNA.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>library_preparation</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Library Preparation</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>end_bias</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>End Bias</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>The end bias of the library.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>library_preparation</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Library Preparation</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>library_strand</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Library Strand</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>The Complementary DNA (cDNA) strand of the library from which the reads derived from - sense (first), antisense (second), both or none.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Antisense</t>
-        </is>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>library_preparation</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Library Preparation</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>spike_in</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Spike In</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>External RNA added to the sample as a control to assess technical variability and normalization in RNA-sequencing. State whether spike-in was used.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>library_preparation</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Library Preparation</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>spike_in_dilution_or_concentration</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Spike In Dilution Or Concentration</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>The final concentration or dilution (for commercial sets) of the spike in mix.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1:1000</t>
-        </is>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>analysis_derived_data</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Analysis Derived Data</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>file_derived_from</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>File Derived From</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>The name of the file that was used to generate the analysis derived data.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>file1_sequencing.json</t>
-        </is>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>analysis_derived_data</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Analysis Derived Data</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>inferred_cell_type</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Inferred Cell Type</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Post analysis cell type or identity declaration based on expression profile or known gene function identified by the performer.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>type II bipolar neuron</t>
-        </is>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>analysis_derived_data</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Analysis Derived Data</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>post_analysis_cell_well_quality</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Post Analysis Cell Well Quality</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Performer defined measure of whether the read output
-from the cell was included in the sequencing analysis. For example, cells might be excluded if a threshold percentage of reads did not map to the genome or if pre-sequencing quality measures were not passed.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>analysis_derived_data</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Analysis Derived Data</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>other_derived_cell_attributes</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Other Derived Cell Attributes</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Any other cell level measurement or annotation as result of the analysis.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>cluster</t>
-        </is>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>stx_seq</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Sequencing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
-  <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -45287,7 +45055,7 @@
   <cols>
     <col width="18.140625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="17.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="41" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="255.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
@@ -45315,7 +45083,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace_prefix</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -46528,7 +46296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -46544,7 +46312,7 @@
   <cols>
     <col width="17.140625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="25.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="21.140625" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="183.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
@@ -46572,7 +46340,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace_prefix</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
